--- a/PBL2022_WEB01/00.日報/日報 (江頭剛之).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (江頭剛之).xlsx
@@ -20,14 +20,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataSignature="AMtx7mgu6/iuiIbaoWhVyr0V7OqOyqGuwg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataSignature="AMtx7mjxFVZwjnK9CI5egtyQERSuo53PTA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="48">
   <si>
     <t>氏名</t>
   </si>
@@ -62,22 +62,28 @@
     <t>作業実績(%)</t>
   </si>
   <si>
-    <t>講義</t>
+    <t>説明</t>
   </si>
   <si>
-    <t>画面設計</t>
+    <t>要件定義書の作成</t>
+  </si>
+  <si>
+    <t>要件定義書のレビュー</t>
+  </si>
+  <si>
+    <t>日報の説明</t>
   </si>
   <si>
     <t>報告</t>
   </si>
   <si>
-    <t>画面設計を進めた。</t>
+    <t>要件定義書を作成し、内容の確認を行った。</t>
   </si>
   <si>
     <t>連絡</t>
   </si>
   <si>
-    <t>ありません。</t>
+    <t>特にありません。</t>
   </si>
   <si>
     <t>相談</t>
@@ -86,16 +92,90 @@
     <t>所感</t>
   </si>
   <si>
-    <t>前回よりは活動を行えた気がするが、それでも周りより少ないと感じたため、もっと努力したい。</t>
+    <t>現時点で自分の実績が足りないため、次回は自分で考えて行動や提案を行いたい。</t>
   </si>
   <si>
     <t>PLコメント</t>
   </si>
   <si>
+    <t>お疲れさまでした。向上心を持ち取り組む姿勢に感服します。
+足りない点は皆で補い合いながら進めていきましょう。</t>
+  </si>
+  <si>
     <t>先輩コメント</t>
   </si>
   <si>
+    <t>お疲れ様です。周りの積極的な意見のなかに入るのは難しいとは思いますが、
+もう少し積極的に意見を出すとより良い議論になると思います。
+来週のレビューでOKがもらえるようにこの調子で進めていきましょう。</t>
+  </si>
+  <si>
     <t>上司コメント</t>
+  </si>
+  <si>
+    <t>お疲れ様です。最初の段階はなかなか慣れないところもあったと思いますが、これから頑張ってください。</t>
+  </si>
+  <si>
+    <t>講義</t>
+  </si>
+  <si>
+    <t>画面設計</t>
+  </si>
+  <si>
+    <t>画面設計を進めた。</t>
+  </si>
+  <si>
+    <t>ありません。</t>
+  </si>
+  <si>
+    <t>前回よりは活動を行えた気がするが、それでも周りより少ないと感じたため、もっと努力したい</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。積極的に活動しようとする姿勢は大変素晴らしいと思います。画面設計の進捗は順調でしょうか？次回、皆で共有し話し合いながら進めていきましょう。
+日報は日付に対応するタブに書いてください。修正しています。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画面設計の作成、お疲れ様でした。
+次回構想設計書のレビュー1回目できるように頑張りましょう。"                       </t>
+  </si>
+  <si>
+    <t>お疲れ様です。だんだん仕事が増えてきたではないでしょう。一人一人の力を出して良いチームワークを期待してます。</t>
+  </si>
+  <si>
+    <t>構想設計書の作成</t>
+  </si>
+  <si>
+    <t>日報</t>
+  </si>
+  <si>
+    <t>構想設計書をメインに活動を行った。</t>
+  </si>
+  <si>
+    <t>今回は、全体の活動自体があまり進まなかったため、私自身も活動が少なかった。次はもっと進めるように努力したい。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。活動の進捗が悪いのは私の責任です。申し訳ありません。要件定義書の変更に合わせ構想設計も変更点が発生している可能性があります。次回、確認を行いましょう。</t>
+  </si>
+  <si>
+    <t>構想設計書の作成お疲れ様でした。次回は構想設計書のレビューを行えるようにしましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様です。要件定義書で変更した所を考慮しながら構想設計書を修正してください。遅れを取り戻すために頑張ってください。</t>
+  </si>
+  <si>
+    <t>構想設計書作成</t>
+  </si>
+  <si>
+    <t>日報作成</t>
+  </si>
+  <si>
+    <t>構想設計書の内容は他のメンバーが書いていたため、私は主に補足やセルの調整を行った。</t>
+  </si>
+  <si>
+    <t>今回は活動こそしていても、話し合いに全く参加しなかったため、次回は意思疎通をしっかり行いたい。</t>
+  </si>
+  <si>
+    <t>お疲れさまでした。今回、情報共有不足により作業内容の修正に大きく時間を取られる結果となりました。話し合いに積極的に参加し、情報共有の強化に全員で取り組みましょう。</t>
   </si>
 </sst>
 </file>
@@ -250,21 +330,23 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -283,14 +365,13 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,19 +394,24 @@
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -621,11 +707,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="6">
-        <v>44851.0</v>
+        <v>44837.0</v>
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -691,10 +777,14 @@
         <v>11</v>
       </c>
       <c r="C6" s="12">
-        <v>80.0</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+        <v>20.0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>100.0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
@@ -704,12 +794,12 @@
         <v>12</v>
       </c>
       <c r="C7" s="12">
+        <v>140.0</v>
+      </c>
+      <c r="D7" s="13">
         <v>100.0</v>
       </c>
-      <c r="D7" s="14">
-        <v>100.0</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>80.0</v>
       </c>
     </row>
@@ -717,8 +807,12 @@
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="12">
+        <v>20.0</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
@@ -726,143 +820,153 @@
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="12">
+        <v>10.0</v>
+      </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="10">
         <v>7.0</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="10">
         <v>8.0</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="10">
         <v>9.0</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="10">
         <v>10.0</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="60.0" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="60.0" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+      <c r="A19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -1883,14 +1987,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1899,7 +2003,7 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="6">
         <v>44907.0</v>
       </c>
       <c r="C4" s="7">
@@ -1966,162 +2070,162 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="10">
         <v>7.0</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="10">
         <v>8.0</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="10">
         <v>9.0</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="10">
         <v>10.0</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="60.0" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="60.0" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -3142,14 +3246,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3158,7 +3262,7 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="6">
         <v>44914.0</v>
       </c>
       <c r="C4" s="7">
@@ -3225,162 +3329,162 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="10">
         <v>7.0</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="10">
         <v>8.0</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="10">
         <v>9.0</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="10">
         <v>10.0</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="60.0" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="60.0" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -4401,14 +4505,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -4417,7 +4521,7 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="6">
         <v>44921.0</v>
       </c>
       <c r="C4" s="7">
@@ -4484,162 +4588,162 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="10">
         <v>7.0</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="10">
         <v>8.0</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="10">
         <v>9.0</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="10">
         <v>10.0</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="60.0" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="60.0" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -5660,14 +5764,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -5676,12 +5784,12 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="6">
         <v>44851.0</v>
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -5743,162 +5851,188 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="B6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="12">
+        <v>80.0</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="D7" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="10">
         <v>7.0</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="10">
         <v>8.0</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="10">
         <v>9.0</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="10">
         <v>10.0</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="60.0" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="60.0" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -6919,14 +7053,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -6935,12 +7073,12 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="6">
         <v>44858.0</v>
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -7002,162 +7140,192 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
+        <v>40.0</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="12">
+        <v>150.0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>100.0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>90.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="10">
         <v>7.0</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="10">
         <v>8.0</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="10">
         <v>9.0</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="10">
         <v>10.0</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="60.0" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="60.0" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -8178,14 +8346,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -8194,12 +8366,12 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="6">
         <v>44865.0</v>
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -8261,162 +8433,188 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="12">
+        <v>160.0</v>
+      </c>
+      <c r="D7" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="10">
         <v>7.0</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="10">
         <v>8.0</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="10">
         <v>9.0</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="10">
         <v>10.0</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="60.0" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="60.0" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -9437,14 +9635,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -9453,7 +9651,7 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="6">
         <v>44872.0</v>
       </c>
       <c r="C4" s="7">
@@ -9520,162 +9718,162 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="10">
         <v>7.0</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="10">
         <v>8.0</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="10">
         <v>9.0</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="10">
         <v>10.0</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="60.0" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="60.0" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -10696,14 +10894,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -10712,7 +10910,7 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="6">
         <v>44879.0</v>
       </c>
       <c r="C4" s="7">
@@ -10779,162 +10977,162 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="10">
         <v>7.0</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="10">
         <v>8.0</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="10">
         <v>9.0</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="10">
         <v>10.0</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="60.0" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="60.0" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -11955,14 +12153,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -11971,7 +12169,7 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="6">
         <v>44886.0</v>
       </c>
       <c r="C4" s="7">
@@ -12038,162 +12236,162 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="10">
         <v>7.0</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="10">
         <v>8.0</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="10">
         <v>9.0</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="10">
         <v>10.0</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="60.0" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="60.0" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -13214,14 +13412,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -13230,7 +13428,7 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="6">
         <v>44893.0</v>
       </c>
       <c r="C4" s="7">
@@ -13297,162 +13495,162 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="10">
         <v>7.0</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="10">
         <v>8.0</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="10">
         <v>9.0</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="10">
         <v>10.0</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="60.0" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="60.0" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -14473,14 +14671,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -14489,7 +14687,7 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="6">
         <v>44900.0</v>
       </c>
       <c r="C4" s="7">
@@ -14556,162 +14754,162 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="10">
         <v>7.0</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="10">
         <v>8.0</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="10">
         <v>9.0</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="10">
         <v>10.0</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="60.0" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="60.0" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" ht="60.0" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" ht="60.0" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" ht="60.0" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" ht="60.0" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" ht="60.0" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>

--- a/PBL2022_WEB01/00.日報/日報 (江頭剛之).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (江頭剛之).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="57">
   <si>
     <t>氏名</t>
   </si>
@@ -176,6 +176,35 @@
   </si>
   <si>
     <t>お疲れさまでした。今回、情報共有不足により作業内容の修正に大きく時間を取られる結果となりました。話し合いに積極的に参加し、情報共有の強化に全員で取り組みましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。次週は、構想設計書がOK貰えて基本設計を作成できるようにしましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様です。チーム内の情報共有は大事だと思いますよ。自分の意見を出していきましょう。</t>
+  </si>
+  <si>
+    <t>構想設計</t>
+  </si>
+  <si>
+    <t>Web技術教育・設計編</t>
+  </si>
+  <si>
+    <t>Web技術教育で設計について学んだ。</t>
+  </si>
+  <si>
+    <t>構想設計が100%になって安心した。私も技術教育で学んだことを活用していきたい。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。技術教育に参加していただきありがとうございます。来週までに資料をアップロードしていただけると助かります。また、学んだ内容の共有をよろしくお願いします。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お疲れ様でした。技術教育で学んだことをメンバーに共有して、
+これからの作業に役立てていきましょう。
+</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。技術教育で学んだ知識や技術をチームメンバーに共有し、開発リーダーとしての活躍を期待しています。</t>
   </si>
 </sst>
 </file>
@@ -407,11 +436,11 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1987,14 +2016,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2070,7 +2099,7 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -2079,7 +2108,7 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -2222,7 +2251,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -3246,14 +3275,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3329,7 +3358,7 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -3338,7 +3367,7 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -3481,7 +3510,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -4505,14 +4534,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -4588,7 +4617,7 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -4597,7 +4626,7 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -4740,7 +4769,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -8595,7 +8624,9 @@
       <c r="A22" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
@@ -8611,7 +8642,9 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -9635,14 +9668,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -9656,7 +9693,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -9718,8 +9755,12 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
+        <v>10.0</v>
+      </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
     </row>
@@ -9727,17 +9768,29 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="B7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="12">
+        <v>90.0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>100.0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="12">
+        <v>75.0</v>
+      </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
@@ -9745,8 +9798,12 @@
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="12">
+        <v>20.0</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
     </row>
@@ -9808,7 +9865,9 @@
       <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
@@ -9835,17 +9894,21 @@
       <c r="A19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
@@ -9854,7 +9917,9 @@
       <c r="A22" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
@@ -9870,7 +9935,9 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -10894,14 +10961,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -10977,7 +11044,7 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -10986,7 +11053,7 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -11129,7 +11196,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -12153,14 +12220,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -12236,7 +12303,7 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -12245,7 +12312,7 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -12388,7 +12455,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -13412,14 +13479,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -13495,7 +13562,7 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -13504,7 +13571,7 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -13647,7 +13714,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -14671,14 +14738,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -14754,7 +14821,7 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -14763,7 +14830,7 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -14906,7 +14973,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>

--- a/PBL2022_WEB01/00.日報/日報 (江頭剛之).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (江頭剛之).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="66">
   <si>
     <t>氏名</t>
   </si>
@@ -206,6 +206,33 @@
   <si>
     <t>お疲れ様でした。技術教育で学んだ知識や技術をチームメンバーに共有し、開発リーダーとしての活躍を期待しています。</t>
   </si>
+  <si>
+    <t>進捗報告</t>
+  </si>
+  <si>
+    <t>基本設計</t>
+  </si>
+  <si>
+    <t>基本設計レビュー</t>
+  </si>
+  <si>
+    <t>中間公表</t>
+  </si>
+  <si>
+    <t>今回は主に記事録の担当をした。1回目であるため、当然ではあるが多くのポイントに指摘があった。</t>
+  </si>
+  <si>
+    <t>遅れが大きくなりつつあるため、巻き返していきたい。</t>
+  </si>
+  <si>
+    <t>お疲れさまでした。本日の議事録、ありがとうございました。作業が滞りつつあるのは私含め全員が感じているでしょう。これから時間外での作業を頼むことがあると思われます。申し訳ありませんが、よろしくお願いします。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。基本設計と詳細設計を進めて、OK貰えるように頑張りましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。基本設計書の修正などを協力してください。画面設計のツールを統一した方が修正しやすいかもしれないと思います。</t>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -434,6 +461,9 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -2016,14 +2046,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2099,7 +2129,7 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -2108,7 +2138,7 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -2251,7 +2281,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -3275,14 +3305,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3358,7 +3388,7 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -3367,7 +3397,7 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -3510,7 +3540,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -4534,14 +4564,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -4617,7 +4647,7 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -4626,7 +4656,7 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -4769,7 +4799,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -10961,14 +10991,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -10982,7 +11016,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -11044,8 +11078,12 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
+        <v>20.0</v>
+      </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
     </row>
@@ -11053,8 +11091,12 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="12">
+        <v>10.0</v>
+      </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
     </row>
@@ -11062,8 +11104,12 @@
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="12">
+        <v>70.0</v>
+      </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
@@ -11071,8 +11117,12 @@
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="12">
+        <v>60.0</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
     </row>
@@ -11080,8 +11130,12 @@
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="12">
+        <v>25.0</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
@@ -11089,8 +11143,12 @@
       <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="32">
+        <v>15.0</v>
+      </c>
       <c r="D11" s="18"/>
       <c r="E11" s="17"/>
     </row>
@@ -11134,7 +11192,9 @@
       <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
@@ -11143,7 +11203,9 @@
       <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
@@ -11152,7 +11214,9 @@
       <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
@@ -11161,17 +11225,21 @@
       <c r="A19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
@@ -11180,7 +11248,9 @@
       <c r="A22" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
@@ -11196,7 +11266,9 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="23" t="s">
+        <v>65</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -12220,14 +12292,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -12303,7 +12375,7 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -12312,7 +12384,7 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -12455,7 +12527,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -13479,14 +13551,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -13562,7 +13634,7 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -13571,7 +13643,7 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -13714,7 +13786,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -14738,14 +14810,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -14821,7 +14893,7 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -14830,7 +14902,7 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -14973,7 +15045,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>

--- a/PBL2022_WEB01/00.日報/日報 (江頭剛之).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (江頭剛之).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="78">
   <si>
     <t>氏名</t>
   </si>
@@ -233,6 +233,42 @@
   <si>
     <t>お疲れ様でした。基本設計書の修正などを協力してください。画面設計のツールを統一した方が修正しやすいかもしれないと思います。</t>
   </si>
+  <si>
+    <t>オリエンテーション</t>
+  </si>
+  <si>
+    <t>テスト説明</t>
+  </si>
+  <si>
+    <t>振り返り</t>
+  </si>
+  <si>
+    <t>技術教育</t>
+  </si>
+  <si>
+    <t>今回は、前半は基本設計、後半は技術教育を受けた。</t>
+  </si>
+  <si>
+    <t>現状では開発リーダーにも拘わらず、開発ではなくテスト側になっているが、多少なりともPHP・SQLについて学んでおきたい。</t>
+  </si>
+  <si>
+    <t>お疲れ様です。技術教育の受講ありがとうございました。また、先週は時間外の活動に協力頂きありがとうございました。今後も昼休みの12507教室にて時間外の活動を行います。よろしくお願いします、</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。開発も始まると思うので、技術教育で学んだことを元に頑張って下さい。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。実装の段階に入って、開発リーダーとしての活躍を期待しています。</t>
+  </si>
+  <si>
+    <t>システムテスト設計</t>
+  </si>
+  <si>
+    <t>今回は、システムテスト設計の作成を行った。</t>
+  </si>
+  <si>
+    <t>先週の時間外の活動を体調不良で休んでしまい協力できなかったので、今週はシステムテスト設計をなるべく指摘箇所を減らせるようにしたい。</t>
+  </si>
 </sst>
 </file>
 
@@ -386,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -466,11 +502,14 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2046,14 +2085,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2129,7 +2168,7 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -2138,7 +2177,7 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -2281,7 +2320,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -3305,14 +3344,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3388,7 +3427,7 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -3397,7 +3436,7 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -3540,7 +3579,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -4564,14 +4603,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -4647,7 +4686,7 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -4656,7 +4695,7 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -4799,7 +4838,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -12292,14 +12331,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -12313,7 +12356,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -12375,8 +12418,12 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="12">
+        <v>10.0</v>
+      </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
     </row>
@@ -12384,8 +12431,12 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="12">
+        <v>20.0</v>
+      </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
     </row>
@@ -12393,8 +12444,12 @@
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="12">
+        <v>30.0</v>
+      </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
@@ -12402,17 +12457,29 @@
       <c r="A9" s="10">
         <v>4.0</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="12">
+        <v>40.0</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="33">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10">
         <v>5.0</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="12">
+        <v>80.0</v>
+      </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
@@ -12420,8 +12487,12 @@
       <c r="A11" s="10">
         <v>6.0</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="32">
+        <v>20.0</v>
+      </c>
       <c r="D11" s="18"/>
       <c r="E11" s="17"/>
     </row>
@@ -12465,7 +12536,9 @@
       <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
@@ -12474,7 +12547,9 @@
       <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
@@ -12483,7 +12558,9 @@
       <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
@@ -12492,17 +12569,21 @@
       <c r="A19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
@@ -12511,7 +12592,9 @@
       <c r="A22" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
@@ -12527,7 +12610,9 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="23" t="s">
+        <v>74</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -13551,14 +13636,18 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -13572,7 +13661,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -13634,8 +13723,12 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="12">
+        <v>10.0</v>
+      </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
     </row>
@@ -13643,17 +13736,29 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="B7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="12">
+        <v>175.0</v>
+      </c>
+      <c r="D7" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12">
+        <v>15.0</v>
+      </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
@@ -13724,7 +13829,9 @@
       <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
@@ -13733,7 +13840,9 @@
       <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
@@ -13742,7 +13851,9 @@
       <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
@@ -13751,10 +13862,12 @@
       <c r="A19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
@@ -13786,7 +13899,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -14810,14 +14923,14 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -14893,7 +15006,7 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="16"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -14902,7 +15015,7 @@
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="16"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -15045,7 +15158,7 @@
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
